--- a/medicine/Bioéthique/Avortement_tardif/Avortement_tardif.xlsx
+++ b/medicine/Bioéthique/Avortement_tardif/Avortement_tardif.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'avortement tardif est une interruption du processus de gestation qui a lieu après le délai légal pour une interruption volontaire de grossesse. Ce délai légal pour obtenir une IVG variant de pays à pays, la notion d’interruption tardive diffère d'un pays à l'autre, de même que les modalités pour l’obtenir.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,11 +551,13 @@
           <t>Par pays</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2015, aux États-Unis, 1,3 % des avortements ont été effectués après la 21e semaine d'aménorrhée et moins de 1 % des avortements ont été effectués après la 24e semaine d'aménorrhée[1],[2]. 
-En France, l'avortement après les délais pour une IVG est une IMG[3].
-En Suisse, pour les interruptions de grossesse effectuées après le délai légal de douze semaines en 2016, 10% l'ont été après la vingt-et-unième semaine[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2015, aux États-Unis, 1,3 % des avortements ont été effectués après la 21e semaine d'aménorrhée et moins de 1 % des avortements ont été effectués après la 24e semaine d'aménorrhée,. 
+En France, l'avortement après les délais pour une IVG est une IMG.
+En Suisse, pour les interruptions de grossesse effectuées après le délai légal de douze semaines en 2016, 10% l'ont été après la vingt-et-unième semaine.
 </t>
         </is>
       </c>
